--- a/groupe2.xlsx
+++ b/groupe2.xlsx
@@ -12,65 +12,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="76">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1)</t>
+  </si>
+  <si>
+    <t>KINX6AC1</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Anglais (KINR6AV1)</t>
+  </si>
+  <si>
+    <t>KINR6AV1</t>
+  </si>
+  <si>
+    <t>7:45</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tech. de  trans. /TPC (FM)  </t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>Télécoms (KINX6AC1)</t>
-  </si>
-  <si>
-    <t>KINX6AC1</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
+    <t>Informatique (KINR5AA1) (OM) / GC</t>
+  </si>
+  <si>
+    <t>KINR5AA1</t>
   </si>
   <si>
     <t>vendredi</t>
   </si>
   <si>
-    <t>Anglais (KINR6AV1)</t>
-  </si>
-  <si>
-    <t>KINR6AV1</t>
-  </si>
-  <si>
-    <t>7:45</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tech. de  trans. /TPC (FM)  </t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
-    <t>Informatique (KINR5AA1) (OM) / GC</t>
-  </si>
-  <si>
-    <t>KINR5AA1</t>
-  </si>
-  <si>
-    <t>lundi</t>
-  </si>
-  <si>
     <t>10:0</t>
   </si>
   <si>
@@ -219,12 +219,6 @@
   </si>
   <si>
     <t>Télécoms (KINX6AC1) /TP/GB</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
   <si>
     <t xml:space="preserve">Télécoms () (KINX6AC1) /TP/GC </t>
@@ -308,7 +302,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -339,7 +333,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44932.0</v>
+        <v>46028.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -370,7 +364,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
@@ -401,7 +395,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>15</v>
@@ -432,7 +426,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>18</v>
@@ -517,7 +511,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>1</v>
@@ -571,7 +565,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>11</v>
@@ -602,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>15</v>
@@ -679,7 +673,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>18</v>
@@ -718,7 +712,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>1</v>
@@ -818,7 +812,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>15</v>
@@ -849,7 +843,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B34" t="s" s="0">
         <v>18</v>
@@ -888,7 +882,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B37" t="s" s="0">
         <v>1</v>
@@ -942,7 +936,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>7</v>
@@ -1019,7 +1013,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B44" t="s" s="0">
         <v>11</v>
@@ -1050,7 +1044,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>15</v>
@@ -1150,7 +1144,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>18</v>
@@ -1189,7 +1183,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>1</v>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>7</v>
@@ -1320,7 +1314,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>11</v>
@@ -1374,7 +1368,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>15</v>
@@ -1482,7 +1476,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="1">
-        <v>44994.0</v>
+        <v>46090.0</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>1</v>
@@ -1536,7 +1530,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>7</v>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>11</v>
@@ -1713,7 +1707,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B82" t="s" s="0">
         <v>15</v>
@@ -1813,7 +1807,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B87" t="s" s="0">
         <v>18</v>
@@ -1875,7 +1869,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B91" t="s" s="0">
         <v>1</v>
@@ -1906,7 +1900,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>7</v>
@@ -2006,7 +2000,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>11</v>
@@ -2060,7 +2054,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B101" t="s" s="0">
         <v>15</v>
@@ -2137,7 +2131,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>18</v>
@@ -2199,7 +2193,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>1</v>
@@ -2253,7 +2247,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>7</v>
@@ -2353,7 +2347,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B117" t="s" s="0">
         <v>11</v>
@@ -2384,7 +2378,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B119" t="s" s="0">
         <v>15</v>
@@ -2399,7 +2393,7 @@
         <v>38</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n" s="0">
         <v>2.0</v>
@@ -2422,7 +2416,7 @@
         <v>44</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E121" t="n" s="0">
         <v>2.0</v>
@@ -2438,7 +2432,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B122" t="s" s="0">
         <v>18</v>
@@ -2469,7 +2463,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B124" s="0"/>
       <c r="C124" t="s" s="0">
@@ -2523,7 +2517,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B127" t="s" s="0">
         <v>7</v>
@@ -2623,7 +2617,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B132" t="s" s="0">
         <v>11</v>
@@ -2654,7 +2648,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B134" t="s" s="0">
         <v>15</v>
@@ -2662,7 +2656,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B135" s="0"/>
       <c r="C135" t="s" s="0">
@@ -2754,7 +2748,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B139" t="s" s="0">
         <v>18</v>
@@ -2862,7 +2856,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n" s="1">
-        <v>45037.0</v>
+        <v>46133.0</v>
       </c>
       <c r="B145" t="s" s="0">
         <v>7</v>
@@ -2870,7 +2864,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B146" s="0"/>
       <c r="C146" t="s" s="0">
@@ -2893,7 +2887,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B147" t="s" s="0">
         <v>11</v>
@@ -2901,7 +2895,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B148" s="0"/>
       <c r="C148" t="s" s="0">
@@ -2924,7 +2918,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B149" s="0"/>
       <c r="C149" t="s" s="0">
@@ -2947,7 +2941,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B150" s="0"/>
       <c r="C150" t="s" s="0">
@@ -2970,7 +2964,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B151" t="s" s="0">
         <v>15</v>
@@ -2978,7 +2972,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" t="s" s="0">
@@ -3001,7 +2995,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" t="s" s="0">
@@ -3024,7 +3018,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B154" t="s" s="0">
         <v>18</v>
@@ -3032,7 +3026,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B155" s="0"/>
       <c r="C155" t="s" s="0">
@@ -3055,7 +3049,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B156" s="0"/>
       <c r="C156" t="s" s="0">
@@ -3086,7 +3080,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B158" t="s" s="0">
         <v>1</v>
@@ -3094,7 +3088,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B159" s="0"/>
       <c r="C159" t="s" s="0">
@@ -3117,7 +3111,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B160" s="0"/>
       <c r="C160" t="s" s="0">
@@ -3140,7 +3134,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B161" t="s" s="0">
         <v>7</v>
@@ -3171,7 +3165,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B163" s="0"/>
       <c r="C163" t="s" s="0">
@@ -3194,7 +3188,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B164" s="0"/>
       <c r="C164" t="s" s="0">
@@ -3217,7 +3211,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B165" t="s" s="0">
         <v>11</v>
@@ -3271,7 +3265,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B168" s="0"/>
       <c r="C168" t="s" s="0">
@@ -3294,7 +3288,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B169" s="0"/>
       <c r="C169" t="s" s="0">
@@ -3317,7 +3311,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B170" t="s" s="0">
         <v>15</v>
@@ -3325,7 +3319,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B171" s="0"/>
       <c r="C171" t="s" s="0">
@@ -3348,7 +3342,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B172" s="0"/>
       <c r="C172" t="s" s="0">
@@ -3371,7 +3365,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B173" s="0"/>
       <c r="C173" t="s" s="0">
@@ -3402,7 +3396,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B175" t="s" s="0">
         <v>1</v>
@@ -3410,7 +3404,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B176" s="0"/>
       <c r="C176" t="s" s="0">
@@ -3433,7 +3427,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B177" s="0"/>
       <c r="C177" t="s" s="0">
@@ -3456,7 +3450,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B178" s="0"/>
       <c r="C178" t="s" s="0">
@@ -3479,7 +3473,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B179" t="s" s="0">
         <v>7</v>
@@ -3510,7 +3504,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B181" s="0"/>
       <c r="C181" t="s" s="0">
@@ -3533,7 +3527,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B182" s="0"/>
       <c r="C182" t="s" s="0">
@@ -3556,7 +3550,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n" s="1">
-        <v>45059.0</v>
+        <v>46155.0</v>
       </c>
       <c r="B183" t="s" s="0">
         <v>11</v>
@@ -3564,7 +3558,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B184" s="0"/>
       <c r="C184" t="s" s="0">
@@ -3587,7 +3581,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B185" s="0"/>
       <c r="C185" t="s" s="0">
@@ -3618,7 +3612,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B187" t="s" s="0">
         <v>1</v>
@@ -3626,7 +3620,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B188" s="0"/>
       <c r="C188" t="s" s="0">
@@ -3649,7 +3643,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B189" s="0"/>
       <c r="C189" t="s" s="0">
@@ -3672,7 +3666,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n" s="1">
-        <v>45065.0</v>
+        <v>46161.0</v>
       </c>
       <c r="B190" t="s" s="0">
         <v>7</v>
